--- a/suppliers.xlsx
+++ b/suppliers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuhe\Dropbox\DTU\2020_1\Excel\Northwind\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tue Hellstern\Documents\GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C1F599-374E-44D7-8799-7FD6A01CE987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suppliers" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="201">
   <si>
     <t>SupplierID</t>
   </si>
@@ -51,12 +52,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
     <t>Exotic Liquids</t>
   </si>
   <si>
@@ -105,9 +100,6 @@
     <t>(100) 555-4822</t>
   </si>
   <si>
-    <t>#CAJUN.HTM#</t>
-  </si>
-  <si>
     <t>Grandma Kelly's Homestead</t>
   </si>
   <si>
@@ -127,9 +119,6 @@
   </si>
   <si>
     <t>(313) 555-5735</t>
-  </si>
-  <si>
-    <t>(313) 555-3349</t>
   </si>
   <si>
     <t>Tokyo Traders</t>
@@ -197,9 +186,6 @@
     <t>(06) 431-7877</t>
   </si>
   <si>
-    <t>Mayumi's (on the World Wide Web)#http://www.microsoft.com/accessdev/sampleapps/mayumi.htm#</t>
-  </si>
-  <si>
     <t>Pavlova, Ltd.</t>
   </si>
   <si>
@@ -222,9 +208,6 @@
     <t>(03) 444-2343</t>
   </si>
   <si>
-    <t>(03) 444-6588</t>
-  </si>
-  <si>
     <t>Specialty Biscuits, Ltd.</t>
   </si>
   <si>
@@ -267,9 +250,6 @@
     <t>031-987 65 43</t>
   </si>
   <si>
-    <t>031-987 65 91</t>
-  </si>
-  <si>
     <t>Refrescos Americanas LTDA</t>
   </si>
   <si>
@@ -327,9 +307,6 @@
     <t>(069) 992755</t>
   </si>
   <si>
-    <t>Plutzer (on the World Wide Web)#http://www.microsoft.com/accessdev/sampleapps/plutzer.htm#</t>
-  </si>
-  <si>
     <t>Nord-Ost-Fisch Handelsgesellschaft mbH</t>
   </si>
   <si>
@@ -348,9 +325,6 @@
     <t>(04721) 8713</t>
   </si>
   <si>
-    <t>(04721) 8714</t>
-  </si>
-  <si>
     <t>Formaggi Fortini s.r.l.</t>
   </si>
   <si>
@@ -367,12 +341,6 @@
   </si>
   <si>
     <t>(0544) 60323</t>
-  </si>
-  <si>
-    <t>(0544) 60603</t>
-  </si>
-  <si>
-    <t>#FORMAGGI.HTM#</t>
   </si>
   <si>
     <t>Norske Meierier</t>
@@ -454,9 +422,6 @@
     <t>(1) 03.83.00.68</t>
   </si>
   <si>
-    <t>(1) 03.83.00.62</t>
-  </si>
-  <si>
     <t>New England Seafood Cannery</t>
   </si>
   <si>
@@ -479,9 +444,6 @@
     <t>(617) 555-3267</t>
   </si>
   <si>
-    <t>(617) 555-3389</t>
-  </si>
-  <si>
     <t>Leka Trading</t>
   </si>
   <si>
@@ -541,9 +503,6 @@
     <t>(12345) 1212</t>
   </si>
   <si>
-    <t>(12345) 1210</t>
-  </si>
-  <si>
     <t>Karkki Oy</t>
   </si>
   <si>
@@ -584,12 +543,6 @@
     <t>(02) 555-5914</t>
   </si>
   <si>
-    <t>(02) 555-4873</t>
-  </si>
-  <si>
-    <t>G'day Mate (on the World Wide Web)#http://www.microsoft.com/accessdev/sampleapps/gdaymate.htm#</t>
-  </si>
-  <si>
     <t>Ma Maison</t>
   </si>
   <si>
@@ -627,9 +580,6 @@
   </si>
   <si>
     <t>(089) 6547665</t>
-  </si>
-  <si>
-    <t>(089) 6547667</t>
   </si>
   <si>
     <t>Escargots Nouveaux</t>
@@ -663,9 +613,6 @@
     <t>38.76.98.06</t>
   </si>
   <si>
-    <t>38.76.98.58</t>
-  </si>
-  <si>
     <t>Forts d'rables</t>
   </si>
   <si>
@@ -682,9 +629,6 @@
   </si>
   <si>
     <t>(514) 555-2955</t>
-  </si>
-  <si>
-    <t>(514) 555-2921</t>
   </si>
   <si>
     <t>Tue</t>
@@ -693,7 +637,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1246,7 +1190,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1524,16 +1468,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1564,941 +1508,881 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
       </c>
       <c r="H3">
         <v>70117</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
       </c>
       <c r="H4">
         <v>48104</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
       </c>
       <c r="H6">
         <v>33007</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
       </c>
       <c r="H7">
         <v>545</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H8">
         <v>3058</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
+      <c r="J10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H11">
         <v>5442</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H12">
         <v>10785</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H13">
         <v>60439</v>
       </c>
       <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
         <v>93</v>
       </c>
-      <c r="J13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H14">
         <v>27478</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H15">
         <v>48100</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H16">
         <v>1320</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H17">
         <v>97101</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H19">
         <v>75004</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H20">
         <v>2134</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
-      </c>
-      <c r="K20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H21">
         <v>512</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H22">
         <v>2800</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J22">
         <v>43844108</v>
       </c>
-      <c r="K22">
-        <v>43844115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H24">
         <v>53120</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H25">
         <v>2042</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
-      </c>
-      <c r="K25" t="s">
-        <v>185</v>
-      </c>
-      <c r="L25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="H26" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H27">
         <v>84100</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
-      </c>
-      <c r="K27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="H28">
         <v>71300</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="H29">
         <v>74000</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G30" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J30" t="s">
-        <v>217</v>
-      </c>
-      <c r="K30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
